--- a/Resultados/Lista_unique_semanas.xlsx
+++ b/Resultados/Lista_unique_semanas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,27 +442,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Lista_unique_semanas.xlsx
+++ b/Resultados/Lista_unique_semanas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,12 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Lista_unique_semanas.xlsx
+++ b/Resultados/Lista_unique_semanas.xlsx
@@ -442,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Lista_unique_semanas.xlsx
+++ b/Resultados/Lista_unique_semanas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,27 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
